--- a/PID.xlsx
+++ b/PID.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="空载" sheetId="1" r:id="rId1"/>
+    <sheet name="寝室地板" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
   <si>
     <t>512L_rps</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -116,8 +117,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.213648293963254E-2"/>
-          <c:y val="5.5555555555555552E-2"/>
+          <c:x val="8.0469816272965886E-2"/>
+          <c:y val="3.2407407407407406E-2"/>
           <c:w val="0.88386351706036748"/>
           <c:h val="0.8416746864975212"/>
         </c:manualLayout>
@@ -206,7 +207,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$1:$G$1</c:f>
+              <c:f>空载!$B$1:$G$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -233,7 +234,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$G$3</c:f>
+              <c:f>空载!$B$3:$G$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -341,7 +342,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$1:$G$1</c:f>
+              <c:f>空载!$B$1:$G$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -368,7 +369,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$5:$G$5</c:f>
+              <c:f>空载!$B$5:$G$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -403,11 +404,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1190190192"/>
-        <c:axId val="1190195088"/>
+        <c:axId val="885852752"/>
+        <c:axId val="885859280"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1190190192"/>
+        <c:axId val="885852752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -464,12 +465,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1190195088"/>
+        <c:crossAx val="885859280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1190195088"/>
+        <c:axId val="885859280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -526,7 +527,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1190190192"/>
+        <c:crossAx val="885852752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -707,7 +708,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$1:$G$1</c:f>
+              <c:f>空载!$B$1:$G$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -734,7 +735,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$G$2</c:f>
+              <c:f>空载!$B$2:$G$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -841,7 +842,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$1:$G$1</c:f>
+              <c:f>空载!$B$1:$G$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -868,7 +869,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$G$4</c:f>
+              <c:f>空载!$B$4:$G$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -903,11 +904,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1190202704"/>
-        <c:axId val="1190203248"/>
+        <c:axId val="1073909024"/>
+        <c:axId val="1073913920"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1190202704"/>
+        <c:axId val="1073909024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -964,12 +965,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1190203248"/>
+        <c:crossAx val="1073913920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1190203248"/>
+        <c:axId val="1073913920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1026,7 +1027,1246 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1190202704"/>
+        <c:crossAx val="1073909024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>分段函数</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>L前半部分</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:backward val="50"/>
+            <c:intercept val="0"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="7.6522528433945761E-2"/>
+                  <c:y val="0.23394393409157188"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>空载!$B$1:$D$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>空载!$B$3:$D$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6.212890625</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23.4375</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32.6171875</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>L后半部分</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.4037401574803149E-2"/>
+                  <c:y val="0.12428404782735492"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>空载!$E$1:$G$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>空载!$E$3:$G$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>39.0625</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42.1875</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50.1953125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>R前半部分</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:forward val="1"/>
+            <c:intercept val="0"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>空载!$B$1:$D$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>空载!$B$5:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>8.166015625</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26.3671875</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35.9375</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>R后半部分</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.0962598425196848E-2"/>
+                  <c:y val="-5.8264071157771947E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>空载!$E$1:$G$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>空载!$E$5:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>41.015625</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43.359375</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>49.8046875</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1073918816"/>
+        <c:axId val="1073921536"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1073918816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1073921536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1073921536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1073918816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>L</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.5383639545056867E-2"/>
+                  <c:y val="0.40632691746864974"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>寝室地板!$B$1:$F$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>301</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>351</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>寝室地板!$B$3:$F$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>15.16015625</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.87109375</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23.599609375</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31.4921875</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32.875</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>R</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.17414348206474189"/>
+                  <c:y val="0.1493383639545057"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>寝室地板!$B$1:$F$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>301</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>351</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>寝室地板!$B$5:$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>15.470703125</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.978515625</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23.853515625</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32.08984375</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>33.775390625</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1073914464"/>
+        <c:axId val="1073912832"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1073914464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1073912832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1073912832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1073914464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1187,6 +2427,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2219,20 +3539,1052 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>257174</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>552449</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2254,15 +4606,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>42862</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2276,6 +4628,71 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>242887</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>14287</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2573,8 +4990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="B2:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2704,6 +5121,178 @@
       <c r="G5">
         <f t="shared" si="1"/>
         <v>49.8046875</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="E1:F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1">
+        <v>151</v>
+      </c>
+      <c r="C1">
+        <v>201</v>
+      </c>
+      <c r="D1">
+        <v>251</v>
+      </c>
+      <c r="E1">
+        <v>301</v>
+      </c>
+      <c r="F1">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>7762</v>
+      </c>
+      <c r="C2">
+        <v>9150</v>
+      </c>
+      <c r="D2">
+        <v>12083</v>
+      </c>
+      <c r="E2">
+        <v>16124</v>
+      </c>
+      <c r="F2">
+        <v>16832</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <f>B2/512</f>
+        <v>15.16015625</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:F3" si="0">C2/512</f>
+        <v>17.87109375</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="0"/>
+        <v>23.599609375</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>31.4921875</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="0"/>
+        <v>32.875</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>7921</v>
+      </c>
+      <c r="C4">
+        <v>9717</v>
+      </c>
+      <c r="D4">
+        <v>12213</v>
+      </c>
+      <c r="E4">
+        <v>16430</v>
+      </c>
+      <c r="F4">
+        <v>17293</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <f>B4/512</f>
+        <v>15.470703125</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ref="C5:F5" si="1">C4/512</f>
+        <v>18.978515625</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>23.853515625</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>32.08984375</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>33.775390625</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E9">
+        <v>301</v>
+      </c>
+      <c r="F9">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E10">
+        <v>16124</v>
+      </c>
+      <c r="F10">
+        <v>16832</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E11">
+        <f t="shared" ref="E11:F11" si="2">E10/512</f>
+        <v>31.4921875</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="2"/>
+        <v>32.875</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E12">
+        <v>16430</v>
+      </c>
+      <c r="F12">
+        <v>17293</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E13">
+        <f t="shared" ref="E13:F13" si="3">E12/512</f>
+        <v>32.08984375</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="3"/>
+        <v>33.775390625</v>
       </c>
     </row>
   </sheetData>

--- a/PID.xlsx
+++ b/PID.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
   <si>
     <t>512L_rps</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -34,6 +34,14 @@
   </si>
   <si>
     <t>PWM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2048L_rps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2048R_rps</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1875,7 +1883,17 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10546981627296588"/>
+          <c:y val="3.7037037037037035E-2"/>
+          <c:w val="0.67864129483814528"/>
+          <c:h val="0.8416746864975212"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -1969,15 +1987,6 @@
                 <c:pt idx="1">
                   <c:v>201</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>251</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>301</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>351</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1988,19 +1997,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>15.16015625</c:v>
+                  <c:v>3.7900390625</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17.87109375</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>23.599609375</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>31.4921875</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>32.875</c:v>
+                  <c:v>4.4677734375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2051,8 +2051,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.17414348206474189"/>
-                  <c:y val="0.1493383639545057"/>
+                  <c:x val="-0.1773941382327209"/>
+                  <c:y val="0.14007910469524643"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -2097,15 +2097,6 @@
                 <c:pt idx="1">
                   <c:v>201</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>251</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>301</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>351</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2116,19 +2107,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>15.470703125</c:v>
+                  <c:v>3.86767578125</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.978515625</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>23.853515625</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>32.08984375</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>33.775390625</c:v>
+                  <c:v>4.74462890625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5133,10 +5115,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="E1:F5"/>
+      <selection activeCell="D6" sqref="D6:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5151,34 +5133,16 @@
       <c r="C1">
         <v>201</v>
       </c>
-      <c r="D1">
-        <v>251</v>
-      </c>
-      <c r="E1">
-        <v>301</v>
-      </c>
-      <c r="F1">
-        <v>351</v>
-      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>7762</v>
       </c>
       <c r="C2">
         <v>9150</v>
-      </c>
-      <c r="D2">
-        <v>12083</v>
-      </c>
-      <c r="E2">
-        <v>16124</v>
-      </c>
-      <c r="F2">
-        <v>16832</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -5186,44 +5150,23 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <f>B2/512</f>
-        <v>15.16015625</v>
+        <f>B2/2048</f>
+        <v>3.7900390625</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:F3" si="0">C2/512</f>
-        <v>17.87109375</v>
-      </c>
-      <c r="D3">
-        <f t="shared" si="0"/>
-        <v>23.599609375</v>
-      </c>
-      <c r="E3">
-        <f t="shared" si="0"/>
-        <v>31.4921875</v>
-      </c>
-      <c r="F3">
-        <f t="shared" si="0"/>
-        <v>32.875</v>
+        <f t="shared" ref="C3:F3" si="0">C2/2048</f>
+        <v>4.4677734375</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>7921</v>
       </c>
       <c r="C4">
         <v>9717</v>
-      </c>
-      <c r="D4">
-        <v>12213</v>
-      </c>
-      <c r="E4">
-        <v>16430</v>
-      </c>
-      <c r="F4">
-        <v>17293</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
@@ -5231,68 +5174,73 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <f>B4/512</f>
-        <v>15.470703125</v>
+        <f>B4/2048</f>
+        <v>3.86767578125</v>
       </c>
       <c r="C5">
-        <f t="shared" ref="C5:F5" si="1">C4/512</f>
-        <v>18.978515625</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="1"/>
-        <v>23.853515625</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="1"/>
-        <v>32.08984375</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="1"/>
-        <v>33.775390625</v>
+        <f t="shared" ref="C5:F5" si="1">C4/2048</f>
+        <v>4.74462890625</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D6">
+        <v>251</v>
+      </c>
+      <c r="E6">
+        <v>301</v>
+      </c>
+      <c r="F6">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D7">
+        <v>12083</v>
+      </c>
+      <c r="E7">
+        <v>16124</v>
+      </c>
+      <c r="F7">
+        <v>16832</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D8">
+        <f>D7/2048</f>
+        <v>5.89990234375</v>
+      </c>
+      <c r="E8">
+        <f>E7/2048</f>
+        <v>7.873046875</v>
+      </c>
+      <c r="F8">
+        <f>F7/2048</f>
+        <v>8.21875</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D9">
+        <v>12213</v>
+      </c>
       <c r="E9">
-        <v>301</v>
+        <v>16430</v>
       </c>
       <c r="F9">
-        <v>351</v>
+        <v>17293</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D10">
+        <f>D9/2048</f>
+        <v>5.96337890625</v>
+      </c>
       <c r="E10">
-        <v>16124</v>
+        <f>E9/2048</f>
+        <v>8.0224609375</v>
       </c>
       <c r="F10">
-        <v>16832</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="E11">
-        <f t="shared" ref="E11:F11" si="2">E10/512</f>
-        <v>31.4921875</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="2"/>
-        <v>32.875</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="E12">
-        <v>16430</v>
-      </c>
-      <c r="F12">
-        <v>17293</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="E13">
-        <f t="shared" ref="E13:F13" si="3">E12/512</f>
-        <v>32.08984375</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="3"/>
-        <v>33.775390625</v>
+        <f>F9/2048</f>
+        <v>8.44384765625</v>
       </c>
     </row>
   </sheetData>

--- a/PID.xlsx
+++ b/PID.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>L_rps</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -24,7 +24,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PWM</t>
+    <t>L_PWM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R_PWM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -202,7 +206,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>151</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>201</c:v>
@@ -229,7 +233,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.49</c:v>
+                  <c:v>5.96</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2.38</c:v>
@@ -336,7 +340,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>151</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>201</c:v>
@@ -358,12 +362,12 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>寝室地板!$B$3:$G$3</c:f>
+              <c:f>寝室地板!$B$4:$G$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.77</c:v>
+                  <c:v>6.14</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2.95</c:v>
@@ -393,11 +397,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="886899616"/>
-        <c:axId val="886900704"/>
+        <c:axId val="-1208789632"/>
+        <c:axId val="-1208794528"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="886899616"/>
+        <c:axId val="-1208789632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -454,12 +458,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="886900704"/>
+        <c:crossAx val="-1208794528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="886900704"/>
+        <c:axId val="-1208794528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -516,7 +520,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="886899616"/>
+        <c:crossAx val="-1208789632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -702,7 +706,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.49</c:v>
+                  <c:v>5.96</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2.38</c:v>
@@ -729,7 +733,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>151</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>201</c:v>
@@ -831,12 +835,12 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>寝室地板!$B$3:$G$3</c:f>
+              <c:f>寝室地板!$B$4:$G$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.77</c:v>
+                  <c:v>6.14</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2.95</c:v>
@@ -863,7 +867,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>151</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>201</c:v>
@@ -893,11 +897,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="886912128"/>
-        <c:axId val="886911584"/>
+        <c:axId val="-1208780928"/>
+        <c:axId val="-1208793984"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="886912128"/>
+        <c:axId val="-1208780928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -954,12 +958,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="886911584"/>
+        <c:crossAx val="-1208793984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="886911584"/>
+        <c:axId val="-1208793984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1016,7 +1020,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="886912128"/>
+        <c:crossAx val="-1208780928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2214,15 +2218,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2244,15 +2248,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2561,10 +2565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2574,7 +2578,7 @@
         <v>2</v>
       </c>
       <c r="B1">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="C1">
         <v>201</v>
@@ -2597,7 +2601,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.49</v>
+        <v>5.96</v>
       </c>
       <c r="C2">
         <v>2.38</v>
@@ -2617,24 +2621,32 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>1.77</v>
+      <c r="B4">
+        <v>6.14</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>2.95</v>
       </c>
-      <c r="D3">
+      <c r="D4">
         <v>3.54</v>
       </c>
-      <c r="E3">
+      <c r="E4">
         <v>3.82</v>
       </c>
-      <c r="F3">
+      <c r="F4">
         <v>4.7300000000000004</v>
       </c>
-      <c r="G3">
+      <c r="G4">
         <v>5.08</v>
       </c>
     </row>
